--- a/approaches/evaluation_logs/baseline/train-5-evaluation_log-Ollama_llama3.3-converted.xlsx
+++ b/approaches/evaluation_logs/baseline/train-5-evaluation_log-Ollama_llama3.3-converted.xlsx
@@ -578,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>4</v>
@@ -655,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>5</v>
